--- a/Production costs_Dashboard_Googlesheets .xlsx
+++ b/Production costs_Dashboard_Googlesheets .xlsx
@@ -4931,11 +4931,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2108902823"/>
-        <c:axId val="490941404"/>
+        <c:axId val="255656537"/>
+        <c:axId val="356866"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108902823"/>
+        <c:axId val="255656537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,10 +4987,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490941404"/>
+        <c:crossAx val="356866"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490941404"/>
+        <c:axId val="356866"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5065,7 +5065,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108902823"/>
+        <c:crossAx val="255656537"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5156,11 +5156,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1792902547"/>
-        <c:axId val="1768507616"/>
+        <c:axId val="497207146"/>
+        <c:axId val="391038538"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1792902547"/>
+        <c:axId val="497207146"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5212,10 +5212,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768507616"/>
+        <c:crossAx val="391038538"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1768507616"/>
+        <c:axId val="391038538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5290,7 +5290,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1792902547"/>
+        <c:crossAx val="497207146"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5494,11 +5494,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="896280272"/>
-        <c:axId val="1391364396"/>
+        <c:axId val="134960541"/>
+        <c:axId val="1124706665"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="896280272"/>
+        <c:axId val="134960541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5550,10 +5550,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1391364396"/>
+        <c:crossAx val="1124706665"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1391364396"/>
+        <c:axId val="1124706665"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5628,7 +5628,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896280272"/>
+        <c:crossAx val="134960541"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5714,11 +5714,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1730566696"/>
-        <c:axId val="1984705482"/>
+        <c:axId val="1636952410"/>
+        <c:axId val="783401029"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1730566696"/>
+        <c:axId val="1636952410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5770,10 +5770,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1984705482"/>
+        <c:crossAx val="783401029"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1984705482"/>
+        <c:axId val="783401029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,7 +5848,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1730566696"/>
+        <c:crossAx val="1636952410"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5939,11 +5939,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="22771691"/>
-        <c:axId val="1518176768"/>
+        <c:axId val="1794817872"/>
+        <c:axId val="381817182"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22771691"/>
+        <c:axId val="1794817872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5995,10 +5995,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1518176768"/>
+        <c:crossAx val="381817182"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1518176768"/>
+        <c:axId val="381817182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6073,7 +6073,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22771691"/>
+        <c:crossAx val="1794817872"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6111,7 +6111,7 @@
             <a:pPr lvl="0">
               <a:defRPr b="1" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
@@ -6119,7 +6119,7 @@
             <a:r>
               <a:rPr b="1" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -6139,7 +6139,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="434343"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -6159,11 +6159,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="316129260"/>
-        <c:axId val="224960937"/>
+        <c:axId val="1378445392"/>
+        <c:axId val="714749158"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316129260"/>
+        <c:axId val="1378445392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6215,10 +6215,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224960937"/>
+        <c:crossAx val="714749158"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224960937"/>
+        <c:axId val="714749158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6293,7 +6293,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316129260"/>
+        <c:crossAx val="1378445392"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6329,17 +6329,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0">
+              <a:defRPr b="1" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0">
+              <a:rPr b="1" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -6359,7 +6359,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="434343"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -6379,11 +6379,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="963055555"/>
-        <c:axId val="1982273435"/>
+        <c:axId val="1439322968"/>
+        <c:axId val="2096755392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="963055555"/>
+        <c:axId val="1439322968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6435,10 +6435,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1982273435"/>
+        <c:crossAx val="2096755392"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1982273435"/>
+        <c:axId val="2096755392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6513,7 +6513,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="963055555"/>
+        <c:crossAx val="1439322968"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6549,21 +6549,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0">
+              <a:defRPr b="1" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="434343"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0">
+              <a:rPr b="1" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="434343"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>total_costs vs. car_ id</a:t>
+              <a:t>Total Costs vs Car ID</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6584,7 +6584,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -6604,11 +6604,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="993575617"/>
-        <c:axId val="571134487"/>
+        <c:axId val="28721405"/>
+        <c:axId val="1405665468"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="993575617"/>
+        <c:axId val="28721405"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6660,10 +6660,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571134487"/>
+        <c:crossAx val="1405665468"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="571134487"/>
+        <c:axId val="1405665468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6738,7 +6738,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993575617"/>
+        <c:crossAx val="28721405"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6824,11 +6824,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1027147289"/>
-        <c:axId val="150183978"/>
+        <c:axId val="574061049"/>
+        <c:axId val="1928688322"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1027147289"/>
+        <c:axId val="574061049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6880,10 +6880,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150183978"/>
+        <c:crossAx val="1928688322"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150183978"/>
+        <c:axId val="1928688322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6958,7 +6958,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1027147289"/>
+        <c:crossAx val="574061049"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7621,9 +7621,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9344025" cy="2457450"/>
     <xdr:graphicFrame>
